--- a/CSIT FE Interface.xlsx
+++ b/CSIT FE Interface.xlsx
@@ -4,21 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="9180" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="9180" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="CSITFE Interface" sheetId="1" r:id="rId1"/>
+    <sheet name="Interface" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Login Out" sheetId="4" r:id="rId3"/>
     <sheet name="Register" sheetId="3" r:id="rId4"/>
-    <sheet name="Get Member" sheetId="5" r:id="rId5"/>
+    <sheet name="Member Detail" sheetId="5" r:id="rId5"/>
+    <sheet name="Change Password" sheetId="6" r:id="rId6"/>
+    <sheet name="Member Edit" sheetId="7" r:id="rId7"/>
+    <sheet name="Register Verfiy" sheetId="8" r:id="rId8"/>
+    <sheet name="getTypes" sheetId="9" r:id="rId9"/>
+    <sheet name="GetTemplates" sheetId="10" r:id="rId10"/>
+    <sheet name="GetTemplateById" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="144">
   <si>
     <t>Field</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -139,14 +145,6 @@
   </si>
   <si>
     <t>Examplse Response</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- msg:'登录成功!',
- success:true,
- obj:null
-}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -218,14 +216,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{
- msg:'注册成功!',
- success:true,
- obj:null
-}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Request:</t>
     </r>
@@ -317,12 +307,488 @@
 }</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ msg:'注册成功!',
+ success:true,
+ obj:null,
+ errorCode:''
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>regdateymd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastdateline</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>111@qq.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-03 11:11:11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态0停用 1可用</t>
+  </si>
+  <si>
+    <t>会员等级(页面不显示)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分(页面不显示)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ msg:'登录成功!',
+ success:true,
+ obj:[
+ {
+  realname : '张三',
+  mobile : '1231323',
+  email : '111@qq.com',
+  state : 0,
+  credit : 0',
+  regdateymd : '2019-08-03 11:11:11',
+  lastdateline : '2019-08-03 11:11:11'
+ }
+ ]
+ errorCode:''
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loint Out</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member Detail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Passord</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member Edit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>toDo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE Status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/csit/user/changepwd</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldpwd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>newpwd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ msg:'修改成功!',
+ success:true,
+ obj:null,
+ errorCode:''
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/csit/user/edit</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>realname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原手机号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O Password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N Password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>uri Param</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/csit/user/{field}/{fieldValue}/verify</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>email or mobile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email address or phone No</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ msg:'可以使用',
+ success:true,
+ obj:null,
+ errorCode:''
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register Verfiy</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID查询用户信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑用户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册字段校验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询模板类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/csit/temptype/pid/{pid}</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconCls</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "errorCode": "",
+ "msg": "",
+ "obj": [{
+  "iconCls": "icon_sys",
+  "id": 10,
+  "name": "船舶"
+ }, {
+  "iconCls": "icon_sys",
+  "id": 11,
+  "name": "汽车"
+ }],
+ "success": true
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>get Template Types</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Progress</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/csit/template</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>query Param</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpId</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>isapply</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首页查询 isapply:1
+2.用户自己查询自己已发布 需要 creator:id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetTemplates</t>
+  </si>
+  <si>
+    <t>GetTemplateById</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID查询模板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/csit/template/{templateid}/detail</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +1015,32 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -737,7 +1229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -852,8 +1344,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,8 +1487,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,18 +1516,57 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1042,6 +1592,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1062,6 +1613,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE5E020"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1350,14 +1906,808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="17" customFormat="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Login!A1" display="Login"/>
+    <hyperlink ref="B3" location="'Login Out'!A1" display="Loint Out"/>
+    <hyperlink ref="B4" location="Register!A1" display="Register"/>
+    <hyperlink ref="B5" location="'Member Detail'!A1" display="Member Detail"/>
+    <hyperlink ref="B6" location="'Change Password'!A1" display="Change Passord"/>
+    <hyperlink ref="B7" location="'Member Edit'!A1" display="Member Edit"/>
+    <hyperlink ref="B8" location="'Register Verfiy'!A1" display="Register Verfiy"/>
+    <hyperlink ref="B9" location="getTypes!A1" display="get Template Types"/>
+    <hyperlink ref="B10" location="GetTemplates!A1" display="GetTemplates"/>
+    <hyperlink ref="B11" location="GetTemplateById!A1" display="GetTemplateById"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="22.5">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.25">
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" ht="186" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="22.5">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.25">
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" ht="186" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="J20:S20"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1368,7 +2718,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1381,7 +2731,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -1391,7 +2741,7 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1451,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1462,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1514,7 +2864,7 @@
       <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="10" t="b">
+      <c r="N6" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1532,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1552,7 +2902,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="J8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
         <v>5</v>
@@ -1561,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:19" ht="14.25">
@@ -1579,18 +2929,18 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="10:19" ht="190.5" customHeight="1">
-      <c r="J20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="J20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1606,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1619,7 +2969,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -1629,7 +2979,7 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1721,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1754,7 +3104,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="J8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
         <v>5</v>
@@ -1763,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:19" ht="14.25">
@@ -1781,18 +3131,18 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="10:19" ht="192" customHeight="1">
-      <c r="J20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="J20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1808,7 +3158,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1820,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -1890,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1901,7 +3251,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1922,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1959,7 +3309,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1968,13 +3318,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -1991,7 +3341,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2003,10 +3353,13 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
+      <c r="J8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="10:19" ht="14.25">
@@ -2024,18 +3377,18 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="10:19" ht="135" customHeight="1">
-      <c r="J20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="J20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2048,10 +3401,385 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="15" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="22.5">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="J9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="J10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="15">
+        <v>2313223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="J11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="J12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="J13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="J14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="J15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="J16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="10:19">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="10:19" ht="14.25">
+      <c r="J20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="10:19" ht="205.5" customHeight="1">
+      <c r="J21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J21:S21"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2063,7 +3791,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -2073,8 +3801,8 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>48</v>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
@@ -2133,18 +3861,27 @@
         <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -2156,10 +3893,28 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
@@ -2174,6 +3929,21 @@
       </c>
     </row>
     <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
@@ -2185,6 +3955,11 @@
       </c>
       <c r="N7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="10:19" ht="14.25">
@@ -2202,18 +3977,666 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="10:19" ht="135" customHeight="1">
-      <c r="J20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J20:S20"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="22.5">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" ht="14.25">
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="10:19" ht="135" customHeight="1">
+      <c r="J20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J20:S20"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="22.5">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" ht="14.25">
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="10:19" ht="135" customHeight="1">
+      <c r="J20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J20:S20"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="22.5">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" ht="14.25">
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="10:19" ht="186" customHeight="1">
+      <c r="J20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
